--- a/input.xlsx
+++ b/input.xlsx
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -37,6 +37,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,15 +119,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -149,18 +150,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -10,10 +10,10 @@
   <sheets>
     <sheet name="input" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">Код</t>
+    <t xml:space="preserve">Коды</t>
   </si>
 </sst>
 </file>
@@ -97,8 +97,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -122,41 +126,41 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1</v>
+        <v>227397901</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>126364701</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>209799504</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -97,12 +97,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -123,16 +127,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A5:A10"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -140,18 +141,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>227397901</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>126364701</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>209799504</v>
+      <c r="A2" s="2" t="n">
+        <v>159729901</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -97,16 +97,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,13 +123,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -141,10 +140,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>159729901</v>
+      <c r="A2" s="0" t="n">
+        <v>154485701</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>186857301</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
